--- a/Documentação/BackLog-TothLibs.xlsx
+++ b/Documentação/BackLog-TothLibs.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8A1C0E4-AAAE-4707-A4DC-2A75649497DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Documentos\Pasta de clones\grupo05-adsa\Documentação\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F19BED3-6AD2-4BCF-A82A-56F31A84B69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>Estado</t>
   </si>
@@ -52,9 +57,6 @@
     <t>Desejavel</t>
   </si>
   <si>
-    <t>SPRINT</t>
-  </si>
-  <si>
     <t>Planejamento</t>
   </si>
   <si>
@@ -67,9 +69,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>Sprint1</t>
-  </si>
-  <si>
     <t>Cadastro&lt;US1.2&gt;</t>
   </si>
   <si>
@@ -112,9 +111,6 @@
     <t>A aplicação deverá atrelar o livro ao usuario logo após a retirada</t>
   </si>
   <si>
-    <t>O usuario será multado caso exceda o limite de tempo com o livro</t>
-  </si>
-  <si>
     <t>Aplicação&lt;US2.1&gt;</t>
   </si>
   <si>
@@ -127,9 +123,6 @@
     <t>A aplicação deverá rankear os livros mais usados</t>
   </si>
   <si>
-    <t>A aplicação deverá separar livros pro genero e conteúdo</t>
-  </si>
-  <si>
     <t>Aplicação&lt;US4.1&gt;</t>
   </si>
   <si>
@@ -146,13 +139,40 @@
   </si>
   <si>
     <t>{986f3d4e-85bf-45b9-aecd-2ab36224f28d}</t>
+  </si>
+  <si>
+    <t>A aplicação deverá ter um campo de pesquisa para encontrar os livros</t>
+  </si>
+  <si>
+    <t>A aplicação terá o link de compra para os livros</t>
+  </si>
+  <si>
+    <t>A aplicação deverá separar livros por gênero e conteúdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aplicação deverá ter uma dashboard com todas as ações do usuário </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aplicação terá uma resenha do livro, onde o aluno publica algo que ele achou relevante sobre o livro </t>
+  </si>
+  <si>
+    <t>A aplicação deverá ter uma caixa de sugestões</t>
+  </si>
+  <si>
+    <t>O usuário poderá ter contato com o administrador</t>
+  </si>
+  <si>
+    <t>A aplicação deverá disponibilizar um PDF de um e-book</t>
+  </si>
+  <si>
+    <t>A aplicação deverá disponibilizar um PDF do histórico da dashboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,13 +188,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
@@ -183,23 +196,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -207,41 +233,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
     <dxf>
       <font>
         <sz val="18"/>
       </font>
       <alignment horizontal="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -250,6 +348,24 @@
         <color rgb="FFFF0000"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -258,6 +374,26 @@
         <color rgb="FFFF0000"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -266,12 +402,90 @@
         <color rgb="FFFF0000"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-      <alignment horizontal="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -287,12 +501,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC1D4480-120A-4F4E-9F66-6BC644D4E94E}" name="Table2" displayName="Table2" ref="A1:F16" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:F16" xr:uid="{FC62B9A2-F0D0-4642-871E-9AAFAAE2A77C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC1D4480-120A-4F4E-9F66-6BC644D4E94E}" name="Table2" displayName="Table2" ref="A1:F22" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F22" xr:uid="{FC62B9A2-F0D0-4642-871E-9AAFAAE2A77C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A63357B8-C26B-43D7-949D-1E0481F48DCF}" name="Estado"/>
-    <tableColumn id="2" xr3:uid="{16F3949E-AC72-4991-97C6-65985CDFFA4B}" name="Funcionalidades"/>
-    <tableColumn id="3" xr3:uid="{82A94399-075C-430D-95D9-B533A2BCE47A}" name="Descrição de requisitos"/>
+    <tableColumn id="1" xr3:uid="{A63357B8-C26B-43D7-949D-1E0481F48DCF}" name="Estado" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{16F3949E-AC72-4991-97C6-65985CDFFA4B}" name="Funcionalidades" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{82A94399-075C-430D-95D9-B533A2BCE47A}" name="Descrição de requisitos" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{CFDE3F53-56C6-486D-A5AE-B147AD101184}" name="Essencial" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{DC6DEEC4-D340-4BD9-B5AF-98F1296BB14C}" name="Importante" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{ECDFAADC-E674-4C8F-9C8D-E7D1CC255F23}" name="Desejavel" dataDxfId="1"/>
@@ -301,18 +515,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3236B910-4233-4C85-9055-37D62520FCBF}" name="Table1" displayName="Table1" ref="G1:G17" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="G1:G17" xr:uid="{F4D37CED-E945-4EEF-BD7B-EEA3F4718609}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8500A53F-993A-42E0-93CC-6FD371DF7CF1}" name="SPRINT"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -608,16 +812,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
@@ -625,279 +829,386 @@
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="26.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="26.25">
-      <c r="A3" t="s">
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="26.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" t="s">
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="30">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="30">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="30">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="30">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" ht="30">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="30">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" ht="30">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" ht="30">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" ht="26.25">
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
@@ -909,21 +1220,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>37</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/BackLog-TothLibs.xlsx
+++ b/Documentação/BackLog-TothLibs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Documentos\Pasta de clones\grupo05-adsa\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanan\Desktop\grupo05-adsa\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F19BED3-6AD2-4BCF-A82A-56F31A84B69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5619C6F-9EC9-4DEE-B79F-28C4CAF83420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
   <si>
     <t>Estado</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Planejamento</t>
   </si>
   <si>
-    <t>Cadastro&lt;US???&gt;</t>
-  </si>
-  <si>
     <t>Cadastrar Usuario Admin</t>
   </si>
   <si>
@@ -78,18 +75,12 @@
     <t>Cadastrar usuario Comum</t>
   </si>
   <si>
-    <t>Notificação&lt;US4.1&gt;</t>
-  </si>
-  <si>
     <t>A aplicação deverá notificar caso o prazo esteja acabando</t>
   </si>
   <si>
     <t>planejamento</t>
   </si>
   <si>
-    <t>Aplicação&lt;US2.2&gt;</t>
-  </si>
-  <si>
     <t>A aplicação deverá ter a relação de livros disponiveis</t>
   </si>
   <si>
@@ -166,6 +157,18 @@
   </si>
   <si>
     <t>A aplicação deverá disponibilizar um PDF do histórico da dashboard</t>
+  </si>
+  <si>
+    <t>Cadastro&lt;US1.1&gt;</t>
+  </si>
+  <si>
+    <t>Cadastro&lt;US2.2&gt;</t>
+  </si>
+  <si>
+    <t>Notificação&lt;US1.1&gt;</t>
+  </si>
+  <si>
+    <t>Aplicação&lt;SB&gt;</t>
   </si>
 </sst>
 </file>
@@ -321,18 +324,22 @@
   <dxfs count="7">
     <dxf>
       <font>
-        <sz val="18"/>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
       </font>
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -352,7 +359,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -396,34 +405,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -479,6 +460,28 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+      <alignment horizontal="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -501,15 +504,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC1D4480-120A-4F4E-9F66-6BC644D4E94E}" name="Table2" displayName="Table2" ref="A1:F22" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC1D4480-120A-4F4E-9F66-6BC644D4E94E}" name="Table2" displayName="Table2" ref="A1:F22" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:F22" xr:uid="{FC62B9A2-F0D0-4642-871E-9AAFAAE2A77C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A63357B8-C26B-43D7-949D-1E0481F48DCF}" name="Estado" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{16F3949E-AC72-4991-97C6-65985CDFFA4B}" name="Funcionalidades" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{82A94399-075C-430D-95D9-B533A2BCE47A}" name="Descrição de requisitos" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{CFDE3F53-56C6-486D-A5AE-B147AD101184}" name="Essencial" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{DC6DEEC4-D340-4BD9-B5AF-98F1296BB14C}" name="Importante" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{ECDFAADC-E674-4C8F-9C8D-E7D1CC255F23}" name="Desejavel" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A63357B8-C26B-43D7-949D-1E0481F48DCF}" name="Estado" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{16F3949E-AC72-4991-97C6-65985CDFFA4B}" name="Funcionalidades" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{82A94399-075C-430D-95D9-B533A2BCE47A}" name="Descrição de requisitos" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{CFDE3F53-56C6-486D-A5AE-B147AD101184}" name="Essencial" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{DC6DEEC4-D340-4BD9-B5AF-98F1296BB14C}" name="Importante" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{ECDFAADC-E674-4C8F-9C8D-E7D1CC255F23}" name="Desejavel" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -814,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,13 +857,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -870,13 +873,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -886,13 +889,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -902,30 +905,30 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="7"/>
     </row>
@@ -934,62 +937,62 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="7"/>
     </row>
@@ -998,15 +1001,15 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1014,14 +1017,14 @@
         <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="7"/>
     </row>
@@ -1030,15 +1033,15 @@
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1050,15 +1053,15 @@
         <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1070,14 +1073,14 @@
         <v>6</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="3"/>
@@ -1090,15 +1093,15 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="3"/>
@@ -1110,14 +1113,14 @@
         <v>6</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" s="7"/>
     </row>
@@ -1126,14 +1129,14 @@
         <v>6</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="14"/>
@@ -1143,15 +1146,15 @@
         <v>6</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" s="15"/>
     </row>
@@ -1160,14 +1163,14 @@
         <v>6</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="14"/>
@@ -1177,15 +1180,15 @@
         <v>6</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1194,15 +1197,15 @@
         <v>6</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1224,17 +1227,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/BackLog-TothLibs.xlsx
+++ b/Documentação/BackLog-TothLibs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanan\Desktop\grupo05-adsa\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas doni\Desktop\Tothlib\grupo05-adsa\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5619C6F-9EC9-4DEE-B79F-28C4CAF83420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE529AE-A1DD-4942-BD93-503074260BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
   <si>
     <t>Estado</t>
   </si>
@@ -96,9 +96,6 @@
     <t xml:space="preserve">A aplicação deve ter a relação de livros Indisponiveis </t>
   </si>
   <si>
-    <t>Aplicação&lt;US???&gt;</t>
-  </si>
-  <si>
     <t>A aplicação deverá atrelar o livro ao usuario logo após a retirada</t>
   </si>
   <si>
@@ -169,6 +166,12 @@
   </si>
   <si>
     <t>Aplicação&lt;SB&gt;</t>
+  </si>
+  <si>
+    <t>Aplicação&lt;US2.4&gt;</t>
+  </si>
+  <si>
+    <t>Aplicação&lt;US1.2&gt;</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -817,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +860,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>7</v>
@@ -889,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
@@ -905,7 +908,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>12</v>
@@ -921,7 +924,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>14</v>
@@ -969,10 +972,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>8</v>
@@ -985,10 +988,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
@@ -1001,10 +1004,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -1020,7 +1023,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
@@ -1033,10 +1036,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1053,10 +1056,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1073,10 +1076,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
@@ -1093,10 +1096,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -1113,10 +1116,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
@@ -1129,10 +1132,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="12" t="s">
@@ -1146,10 +1149,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1163,10 +1166,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
@@ -1180,10 +1183,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -1197,10 +1200,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -1227,17 +1230,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/BackLog-TothLibs.xlsx
+++ b/Documentação/BackLog-TothLibs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas doni\Desktop\Tothlib\grupo05-adsa\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanan\Desktop\grupo05-adsa\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE529AE-A1DD-4942-BD93-503074260BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8F4152-17B5-4AA7-8B4E-654EA3778AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="67">
   <si>
     <t>Estado</t>
   </si>
@@ -172,6 +172,72 @@
   </si>
   <si>
     <t>Aplicação&lt;US1.2&gt;</t>
+  </si>
+  <si>
+    <t>Aplicação&lt;US1.3&gt;</t>
+  </si>
+  <si>
+    <t>Aplicação&lt;US1.4&gt;</t>
+  </si>
+  <si>
+    <t>A aplicação deverá ter uma tela de FAQ</t>
+  </si>
+  <si>
+    <t>A aplicação deverá conter uma tela para contato com o suporte</t>
+  </si>
+  <si>
+    <t>Aplicação&lt;US1.5&gt;</t>
+  </si>
+  <si>
+    <t>Aplicação&lt;US1.6&gt;</t>
+  </si>
+  <si>
+    <t>Aplicação&lt;US1.7&gt;</t>
+  </si>
+  <si>
+    <t>Aplicação&lt;US1.8&gt;</t>
+  </si>
+  <si>
+    <t>Aplicação&lt;US1.9&gt;</t>
+  </si>
+  <si>
+    <t>Aplicação&lt;US1.10&gt;</t>
+  </si>
+  <si>
+    <t>Aplicação&lt;US1.11&gt;</t>
+  </si>
+  <si>
+    <t>Aplicação&lt;US1.12&gt;</t>
+  </si>
+  <si>
+    <t>Aplicação&lt;US1.13&gt;</t>
+  </si>
+  <si>
+    <t>Aplicação&lt;US1.14&gt;</t>
+  </si>
+  <si>
+    <t>A aplicação deverá conter uma tela para exibir informações sobre o livro</t>
+  </si>
+  <si>
+    <t>A aplicação deverá conter uma tela para exibir uma lista dos livros em estoque</t>
+  </si>
+  <si>
+    <t>A aplicação deverá conter uma tela para exibir informações do perfil do Usuário</t>
+  </si>
+  <si>
+    <t>A aplicação deverá conter uma tela para Login/Cadastro</t>
+  </si>
+  <si>
+    <t>A aplicação deverá conter uma sidebar em telas pós login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aplicação deverá conter um footer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aplicação deverá conter um header </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aplicação deverá conter uma tela para que o administrador veja os usuários </t>
   </si>
 </sst>
 </file>
@@ -231,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -278,11 +344,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -320,6 +397,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,8 +596,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC1D4480-120A-4F4E-9F66-6BC644D4E94E}" name="Table2" displayName="Table2" ref="A1:F22" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F22" xr:uid="{FC62B9A2-F0D0-4642-871E-9AAFAAE2A77C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC1D4480-120A-4F4E-9F66-6BC644D4E94E}" name="Table2" displayName="Table2" ref="A1:F27" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F27" xr:uid="{FC62B9A2-F0D0-4642-871E-9AAFAAE2A77C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A63357B8-C26B-43D7-949D-1E0481F48DCF}" name="Estado" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{16F3949E-AC72-4991-97C6-65985CDFFA4B}" name="Funcionalidades" dataDxfId="4"/>
@@ -522,7 +611,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -818,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,7 +1289,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>38</v>
@@ -1210,6 +1299,183 @@
       <c r="F22" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentação/BackLog-TothLibs.xlsx
+++ b/Documentação/BackLog-TothLibs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanan\Desktop\grupo05-adsa\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas doni\Desktop\grupo04\grupo05-adsa\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8F4152-17B5-4AA7-8B4E-654EA3778AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCE91DD-77C9-48E5-A05A-3E72058F7DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="87">
   <si>
     <t>Estado</t>
   </si>
@@ -78,9 +78,6 @@
     <t>A aplicação deverá notificar caso o prazo esteja acabando</t>
   </si>
   <si>
-    <t>planejamento</t>
-  </si>
-  <si>
     <t>A aplicação deverá ter a relação de livros disponiveis</t>
   </si>
   <si>
@@ -238,6 +235,69 @@
   </si>
   <si>
     <t xml:space="preserve">A aplicação deverá conter uma tela para que o administrador veja os usuários </t>
+  </si>
+  <si>
+    <t>Back-End&lt;&gt;</t>
+  </si>
+  <si>
+    <t>Implementação Padrão adapter no projeto</t>
+  </si>
+  <si>
+    <t>Concluido</t>
+  </si>
+  <si>
+    <t>Prototipo de telas</t>
+  </si>
+  <si>
+    <t>Figma</t>
+  </si>
+  <si>
+    <t>Engenharia de software</t>
+  </si>
+  <si>
+    <t>Arquitetura de solução</t>
+  </si>
+  <si>
+    <t>Gantt</t>
+  </si>
+  <si>
+    <t>Cronograma de projeto</t>
+  </si>
+  <si>
+    <t>Execução</t>
+  </si>
+  <si>
+    <t>Front-End&lt;&gt;</t>
+  </si>
+  <si>
+    <t>Passar tela Perfil aluno para React</t>
+  </si>
+  <si>
+    <t>Passar tela Lista livros para React</t>
+  </si>
+  <si>
+    <t>Passar tela Cadastro de livros para React</t>
+  </si>
+  <si>
+    <t>Passar tela Cadastro de usuario para React</t>
+  </si>
+  <si>
+    <t>Passar tela Lista de usuarios para React</t>
+  </si>
+  <si>
+    <t>Passar tela FAQ para React</t>
+  </si>
+  <si>
+    <t>Adicionar Endpoint locação de livros</t>
+  </si>
+  <si>
+    <t>Adicionar Endpoint renovação de livros</t>
+  </si>
+  <si>
+    <t>Adicionar Endpoint devolução de livros</t>
+  </si>
+  <si>
+    <t>Adicionar Endpoint de cadastro de livros</t>
   </si>
 </sst>
 </file>
@@ -283,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,8 +356,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -355,11 +421,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -408,6 +511,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,8 +731,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC1D4480-120A-4F4E-9F66-6BC644D4E94E}" name="Table2" displayName="Table2" ref="A1:F27" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F27" xr:uid="{FC62B9A2-F0D0-4642-871E-9AAFAAE2A77C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC1D4480-120A-4F4E-9F66-6BC644D4E94E}" name="Table2" displayName="Table2" ref="A1:F68" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F68" xr:uid="{FC62B9A2-F0D0-4642-871E-9AAFAAE2A77C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A63357B8-C26B-43D7-949D-1E0481F48DCF}" name="Estado" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{16F3949E-AC72-4991-97C6-65985CDFFA4B}" name="Funcionalidades" dataDxfId="4"/>
@@ -611,7 +746,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -907,17 +1042,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" activeCellId="1" sqref="B9 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -946,10 +1081,10 @@
     </row>
     <row r="2" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>7</v>
@@ -962,7 +1097,7 @@
     </row>
     <row r="3" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>9</v>
@@ -978,10 +1113,10 @@
     </row>
     <row r="4" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
@@ -994,10 +1129,10 @@
     </row>
     <row r="5" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>12</v>
@@ -1010,13 +1145,13 @@
     </row>
     <row r="6" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
@@ -1026,13 +1161,13 @@
     </row>
     <row r="7" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>8</v>
@@ -1042,13 +1177,13 @@
     </row>
     <row r="8" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>8</v>
@@ -1058,13 +1193,13 @@
     </row>
     <row r="9" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>8</v>
@@ -1074,13 +1209,13 @@
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
@@ -1090,13 +1225,13 @@
     </row>
     <row r="11" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -1106,29 +1241,29 @@
     </row>
     <row r="12" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1142,19 +1277,19 @@
     </row>
     <row r="14" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1162,13 +1297,13 @@
     </row>
     <row r="15" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
@@ -1182,13 +1317,13 @@
     </row>
     <row r="16" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -1201,14 +1336,14 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>6</v>
+      <c r="A17" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
@@ -1217,14 +1352,14 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>6</v>
+      <c r="A18" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="12" t="s">
@@ -1234,14 +1369,14 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>6</v>
+      <c r="A19" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1251,14 +1386,14 @@
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>6</v>
+      <c r="A20" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
@@ -1268,14 +1403,14 @@
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>6</v>
+      <c r="A21" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -1285,14 +1420,14 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>6</v>
+      <c r="A22" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -1303,13 +1438,13 @@
     </row>
     <row r="23" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="B23" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>8</v>
@@ -1318,14 +1453,14 @@
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>6</v>
+      <c r="A24" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>8</v>
@@ -1334,14 +1469,14 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>6</v>
+      <c r="A25" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>8</v>
@@ -1350,14 +1485,14 @@
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>6</v>
+      <c r="A26" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>8</v>
@@ -1366,14 +1501,14 @@
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>6</v>
+      <c r="A27" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>8</v>
@@ -1383,13 +1518,13 @@
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>8</v>
@@ -1399,13 +1534,13 @@
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>8</v>
@@ -1415,13 +1550,13 @@
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>8</v>
@@ -1431,13 +1566,13 @@
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>8</v>
@@ -1447,13 +1582,13 @@
     </row>
     <row r="32" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>8</v>
@@ -1463,19 +1598,409 @@
     </row>
     <row r="33" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A36" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A37" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="28"/>
+    </row>
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="28"/>
+    </row>
+    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="33"/>
+      <c r="F40" s="34"/>
+    </row>
+    <row r="41" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
+    </row>
+    <row r="42" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="28"/>
+    </row>
+    <row r="43" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="28"/>
+    </row>
+    <row r="44" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="28"/>
+    </row>
+    <row r="45" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="28"/>
+    </row>
+    <row r="46" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="28"/>
+    </row>
+    <row r="47" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="28"/>
+    </row>
+    <row r="48" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="26"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="28"/>
+    </row>
+    <row r="49" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="26"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="28"/>
+    </row>
+    <row r="50" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="26"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="28"/>
+    </row>
+    <row r="51" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="26"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="28"/>
+    </row>
+    <row r="52" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="26"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="28"/>
+    </row>
+    <row r="53" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="26"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="28"/>
+    </row>
+    <row r="54" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="26"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="28"/>
+    </row>
+    <row r="55" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="29"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="30"/>
+    </row>
+    <row r="57" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="26"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="29"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="30"/>
+    </row>
+    <row r="59" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="26"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="29"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="30"/>
+    </row>
+    <row r="61" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="26"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="29"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="30"/>
+    </row>
+    <row r="63" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="26"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="29"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="30"/>
+    </row>
+    <row r="65" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="26"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="29"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="30"/>
+    </row>
+    <row r="67" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="26"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="29"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1496,17 +2021,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/BackLog-TothLibs.xlsx
+++ b/Documentação/BackLog-TothLibs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas doni\Desktop\grupo04\grupo05-adsa\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanan\Desktop\grupo05-adsa\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCE91DD-77C9-48E5-A05A-3E72058F7DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8F4152-17B5-4AA7-8B4E-654EA3778AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="67">
   <si>
     <t>Estado</t>
   </si>
@@ -78,6 +78,9 @@
     <t>A aplicação deverá notificar caso o prazo esteja acabando</t>
   </si>
   <si>
+    <t>planejamento</t>
+  </si>
+  <si>
     <t>A aplicação deverá ter a relação de livros disponiveis</t>
   </si>
   <si>
@@ -235,69 +238,6 @@
   </si>
   <si>
     <t xml:space="preserve">A aplicação deverá conter uma tela para que o administrador veja os usuários </t>
-  </si>
-  <si>
-    <t>Back-End&lt;&gt;</t>
-  </si>
-  <si>
-    <t>Implementação Padrão adapter no projeto</t>
-  </si>
-  <si>
-    <t>Concluido</t>
-  </si>
-  <si>
-    <t>Prototipo de telas</t>
-  </si>
-  <si>
-    <t>Figma</t>
-  </si>
-  <si>
-    <t>Engenharia de software</t>
-  </si>
-  <si>
-    <t>Arquitetura de solução</t>
-  </si>
-  <si>
-    <t>Gantt</t>
-  </si>
-  <si>
-    <t>Cronograma de projeto</t>
-  </si>
-  <si>
-    <t>Execução</t>
-  </si>
-  <si>
-    <t>Front-End&lt;&gt;</t>
-  </si>
-  <si>
-    <t>Passar tela Perfil aluno para React</t>
-  </si>
-  <si>
-    <t>Passar tela Lista livros para React</t>
-  </si>
-  <si>
-    <t>Passar tela Cadastro de livros para React</t>
-  </si>
-  <si>
-    <t>Passar tela Cadastro de usuario para React</t>
-  </si>
-  <si>
-    <t>Passar tela Lista de usuarios para React</t>
-  </si>
-  <si>
-    <t>Passar tela FAQ para React</t>
-  </si>
-  <si>
-    <t>Adicionar Endpoint locação de livros</t>
-  </si>
-  <si>
-    <t>Adicionar Endpoint renovação de livros</t>
-  </si>
-  <si>
-    <t>Adicionar Endpoint devolução de livros</t>
-  </si>
-  <si>
-    <t>Adicionar Endpoint de cadastro de livros</t>
   </si>
 </sst>
 </file>
@@ -343,7 +283,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,14 +296,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -421,48 +355,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -512,38 +409,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,8 +596,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC1D4480-120A-4F4E-9F66-6BC644D4E94E}" name="Table2" displayName="Table2" ref="A1:F68" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F68" xr:uid="{FC62B9A2-F0D0-4642-871E-9AAFAAE2A77C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC1D4480-120A-4F4E-9F66-6BC644D4E94E}" name="Table2" displayName="Table2" ref="A1:F27" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F27" xr:uid="{FC62B9A2-F0D0-4642-871E-9AAFAAE2A77C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A63357B8-C26B-43D7-949D-1E0481F48DCF}" name="Estado" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{16F3949E-AC72-4991-97C6-65985CDFFA4B}" name="Funcionalidades" dataDxfId="4"/>
@@ -746,7 +611,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1042,17 +907,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" activeCellId="1" sqref="B9 C13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -1081,10 +946,10 @@
     </row>
     <row r="2" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>7</v>
@@ -1097,7 +962,7 @@
     </row>
     <row r="3" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>9</v>
@@ -1113,10 +978,10 @@
     </row>
     <row r="4" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
@@ -1129,10 +994,10 @@
     </row>
     <row r="5" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>12</v>
@@ -1145,13 +1010,13 @@
     </row>
     <row r="6" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
@@ -1161,13 +1026,13 @@
     </row>
     <row r="7" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>8</v>
@@ -1177,13 +1042,13 @@
     </row>
     <row r="8" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>8</v>
@@ -1193,13 +1058,13 @@
     </row>
     <row r="9" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>8</v>
@@ -1209,13 +1074,13 @@
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
@@ -1225,13 +1090,13 @@
     </row>
     <row r="11" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -1241,29 +1106,29 @@
     </row>
     <row r="12" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="E12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1277,19 +1142,19 @@
     </row>
     <row r="14" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>8</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1297,13 +1162,13 @@
     </row>
     <row r="15" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
@@ -1317,13 +1182,13 @@
     </row>
     <row r="16" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -1336,14 +1201,14 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>75</v>
+      <c r="A17" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
@@ -1352,14 +1217,14 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>75</v>
+      <c r="A18" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="12" t="s">
@@ -1369,14 +1234,14 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>75</v>
+      <c r="A19" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1386,14 +1251,14 @@
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>75</v>
+      <c r="A20" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
@@ -1403,14 +1268,14 @@
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>75</v>
+      <c r="A21" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -1420,14 +1285,14 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>75</v>
+      <c r="A22" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -1438,13 +1303,13 @@
     </row>
     <row r="23" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>8</v>
@@ -1453,14 +1318,14 @@
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>75</v>
+      <c r="A24" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>8</v>
@@ -1469,14 +1334,14 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>75</v>
+      <c r="A25" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>8</v>
@@ -1485,14 +1350,14 @@
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>75</v>
+      <c r="A26" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>8</v>
@@ -1501,14 +1366,14 @@
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>75</v>
+      <c r="A27" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>8</v>
@@ -1518,13 +1383,13 @@
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>8</v>
@@ -1534,13 +1399,13 @@
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>8</v>
@@ -1550,13 +1415,13 @@
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>8</v>
@@ -1566,13 +1431,13 @@
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>8</v>
@@ -1582,13 +1447,13 @@
     </row>
     <row r="32" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>8</v>
@@ -1598,409 +1463,19 @@
     </row>
     <row r="33" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A36" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A37" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="28"/>
-    </row>
-    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="28"/>
-    </row>
-    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="34"/>
-    </row>
-    <row r="41" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="34"/>
-    </row>
-    <row r="42" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="28"/>
-    </row>
-    <row r="43" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="28"/>
-    </row>
-    <row r="44" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="28"/>
-    </row>
-    <row r="45" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="28"/>
-    </row>
-    <row r="46" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="28"/>
-    </row>
-    <row r="47" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="28"/>
-    </row>
-    <row r="48" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="28"/>
-    </row>
-    <row r="49" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="28"/>
-    </row>
-    <row r="50" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="28"/>
-    </row>
-    <row r="51" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="28"/>
-    </row>
-    <row r="52" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="28"/>
-    </row>
-    <row r="53" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="28"/>
-    </row>
-    <row r="54" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="28"/>
-    </row>
-    <row r="55" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="30"/>
-    </row>
-    <row r="57" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="30"/>
-    </row>
-    <row r="59" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="30"/>
-    </row>
-    <row r="61" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="30"/>
-    </row>
-    <row r="63" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="30"/>
-    </row>
-    <row r="65" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="6"/>
-    </row>
-    <row r="66" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="29"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="30"/>
-    </row>
-    <row r="67" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="6"/>
-    </row>
-    <row r="68" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2021,17 +1496,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/BackLog-TothLibs.xlsx
+++ b/Documentação/BackLog-TothLibs.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas doni\Desktop\grupo04\grupo05-adsa\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas doni\Desktop\git novo\grupo05-adsa\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D80703-3AB8-4959-B133-E5A7038A8783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C3CBE4-B8BC-48C5-8CA1-E8FC61DD0394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="_56F9DC9755BA473782653E2940F9" sheetId="2" state="veryHidden" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="_56F9DC9755BA473782653E2940F9" sheetId="2" state="veryHidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_56F9DC9755BA473782653E2940F9FormId">"V7RQ_eCEDECA8kYPKOtBptY4SimGx1hHgl-7FkaAXndUMDBHU1YyMk9aRVdKN1lMSlU3QlRVSERCNS4u"</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="88">
   <si>
     <t>Estado</t>
   </si>
@@ -186,9 +187,6 @@
     <t>Aplicação&lt;US1.5&gt;</t>
   </si>
   <si>
-    <t>Aplicação&lt;US1.6&gt;</t>
-  </si>
-  <si>
     <t>Aplicação&lt;US1.7&gt;</t>
   </si>
   <si>
@@ -249,9 +247,6 @@
     <t>Prototipo de telas</t>
   </si>
   <si>
-    <t>Figma</t>
-  </si>
-  <si>
     <t>Engenharia de software</t>
   </si>
   <si>
@@ -298,13 +293,22 @@
   </si>
   <si>
     <t>Adicionar Endpoint de cadastro de livros</t>
+  </si>
+  <si>
+    <t>Criar metodo de download em csv.</t>
+  </si>
+  <si>
+    <t>Prototipação</t>
+  </si>
+  <si>
+    <t>Prototipação&lt;&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +346,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -363,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -422,17 +434,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -462,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -512,12 +513,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -527,22 +522,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,8 +741,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC1D4480-120A-4F4E-9F66-6BC644D4E94E}" name="Table2" displayName="Table2" ref="A1:F68" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F68" xr:uid="{FC62B9A2-F0D0-4642-871E-9AAFAAE2A77C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC1D4480-120A-4F4E-9F66-6BC644D4E94E}" name="Table2" displayName="Table2" ref="A2:F69" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A2:F69" xr:uid="{FC62B9A2-F0D0-4642-871E-9AAFAAE2A77C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A63357B8-C26B-43D7-949D-1E0481F48DCF}" name="Estado" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{16F3949E-AC72-4991-97C6-65985CDFFA4B}" name="Funcionalidades" dataDxfId="4"/>
@@ -1042,15 +1052,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:F47"/>
+    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -1059,51 +1069,36 @@
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -1113,13 +1108,13 @@
     </row>
     <row r="4" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>8</v>
@@ -1129,13 +1124,13 @@
     </row>
     <row r="5" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>8</v>
@@ -1145,45 +1140,45 @@
     </row>
     <row r="6" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>8</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>8</v>
@@ -1193,13 +1188,13 @@
     </row>
     <row r="9" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>8</v>
@@ -1207,47 +1202,47 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>8</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="E11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1257,13 +1252,13 @@
     </row>
     <row r="13" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1277,19 +1272,19 @@
     </row>
     <row r="14" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>8</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1297,19 +1292,19 @@
     </row>
     <row r="15" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="11"/>
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1317,19 +1312,19 @@
     </row>
     <row r="16" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="E16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="11"/>
       <c r="G16" s="16"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1337,97 +1332,97 @@
     </row>
     <row r="17" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="E19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="E21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -1436,31 +1431,31 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="18" t="s">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>8</v>
@@ -1470,29 +1465,29 @@
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="7"/>
+      <c r="D25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="11"/>
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>8</v>
@@ -1501,506 +1496,524 @@
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="25"/>
+    </row>
+    <row r="33" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="25"/>
+    </row>
+    <row r="34" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="25"/>
+    </row>
+    <row r="36" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="25"/>
+    </row>
+    <row r="37" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="25"/>
+    </row>
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="25"/>
+    </row>
+    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="30"/>
+      <c r="F40" s="31"/>
+    </row>
+    <row r="41" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="30"/>
+      <c r="F41" s="31"/>
+    </row>
+    <row r="42" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A36" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A37" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="28"/>
-    </row>
-    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="28"/>
-    </row>
-    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="34"/>
-    </row>
-    <row r="41" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="34"/>
-    </row>
-    <row r="42" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="28"/>
+      <c r="F42" s="25"/>
     </row>
     <row r="43" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
-        <v>75</v>
+      <c r="A43" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="28"/>
+      <c r="F43" s="25"/>
     </row>
     <row r="44" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
-        <v>75</v>
+      <c r="A44" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="28"/>
+      <c r="F44" s="25"/>
     </row>
     <row r="45" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
-        <v>75</v>
+      <c r="A45" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="28"/>
+      <c r="F45" s="25"/>
     </row>
     <row r="46" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
-        <v>75</v>
+      <c r="A46" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="28"/>
+      <c r="F46" s="25"/>
     </row>
     <row r="47" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
-        <v>75</v>
+      <c r="A47" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="28"/>
+      <c r="F47" s="25"/>
     </row>
     <row r="48" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
+      <c r="A48" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E48" s="7"/>
-      <c r="F48" s="28"/>
+      <c r="F48" s="25"/>
     </row>
     <row r="49" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="28"/>
+      <c r="F49" s="25"/>
     </row>
     <row r="50" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
-      <c r="F50" s="28"/>
+      <c r="F50" s="25"/>
     </row>
     <row r="51" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="28"/>
+      <c r="F51" s="25"/>
     </row>
     <row r="52" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="28"/>
+      <c r="F52" s="25"/>
     </row>
     <row r="53" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="28"/>
+      <c r="F53" s="25"/>
     </row>
     <row r="54" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
-      <c r="F54" s="28"/>
+      <c r="F54" s="25"/>
     </row>
     <row r="55" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
-      <c r="F55" s="6"/>
+      <c r="F55" s="25"/>
     </row>
     <row r="56" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="30"/>
+      <c r="F56" s="6"/>
     </row>
     <row r="57" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
-      <c r="F57" s="6"/>
+      <c r="F57" s="27"/>
     </row>
     <row r="58" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
-      <c r="F58" s="30"/>
+      <c r="F58" s="6"/>
     </row>
     <row r="59" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
-      <c r="F59" s="6"/>
+      <c r="F59" s="27"/>
     </row>
     <row r="60" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
-      <c r="F60" s="30"/>
+      <c r="F60" s="6"/>
     </row>
     <row r="61" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="6"/>
+      <c r="F61" s="27"/>
     </row>
     <row r="62" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="30"/>
+      <c r="F62" s="6"/>
     </row>
     <row r="63" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="6"/>
+      <c r="F63" s="27"/>
     </row>
     <row r="64" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="30"/>
+      <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A65" s="26"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
-      <c r="F65" s="6"/>
+      <c r="F65" s="27"/>
     </row>
     <row r="66" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="29"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
-      <c r="F66" s="30"/>
+      <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A67" s="26"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
-      <c r="F67" s="6"/>
+      <c r="F67" s="27"/>
     </row>
     <row r="68" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="30"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="26"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2012,6 +2025,193 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D458F015-42A2-4BBF-9341-4D7090E2B688}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632599E7-BDA1-44E4-B311-20DBE9282820}">
   <dimension ref="A1:A3"/>
   <sheetViews>

--- a/Documentação/BackLog-TothLibs.xlsx
+++ b/Documentação/BackLog-TothLibs.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas doni\Desktop\git novo\grupo05-adsa\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C3CBE4-B8BC-48C5-8CA1-E8FC61DD0394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047CEEA9-6D5B-45E1-9DBE-F6BFEED22D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="BackLogAtualizado" sheetId="1" r:id="rId1"/>
+    <sheet name="Mudanças" sheetId="3" r:id="rId2"/>
     <sheet name="_56F9DC9755BA473782653E2940F9" sheetId="2" state="veryHidden" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="86">
   <si>
     <t>Estado</t>
   </si>
@@ -133,9 +133,6 @@
     <t>A aplicação terá o link de compra para os livros</t>
   </si>
   <si>
-    <t>A aplicação deverá separar livros por gênero e conteúdo</t>
-  </si>
-  <si>
     <t xml:space="preserve">A aplicação deverá ter uma dashboard com todas as ações do usuário </t>
   </si>
   <si>
@@ -296,9 +293,6 @@
   </si>
   <si>
     <t>Criar metodo de download em csv.</t>
-  </si>
-  <si>
-    <t>Prototipação</t>
   </si>
   <si>
     <t>Prototipação&lt;&gt;</t>
@@ -308,7 +302,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,8 +348,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +373,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -463,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -496,9 +503,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -545,14 +549,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,8 +759,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC1D4480-120A-4F4E-9F66-6BC644D4E94E}" name="Table2" displayName="Table2" ref="A2:F69" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A2:F69" xr:uid="{FC62B9A2-F0D0-4642-871E-9AAFAAE2A77C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC1D4480-120A-4F4E-9F66-6BC644D4E94E}" name="Table2" displayName="Table2" ref="A2:F44" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A2:F44" xr:uid="{FC62B9A2-F0D0-4642-871E-9AAFAAE2A77C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A63357B8-C26B-43D7-949D-1E0481F48DCF}" name="Estado" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{16F3949E-AC72-4991-97C6-65985CDFFA4B}" name="Funcionalidades" dataDxfId="4"/>
@@ -1052,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:F34"/>
+    <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,10 +1110,10 @@
     </row>
     <row r="3" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
@@ -1108,7 +1126,7 @@
     </row>
     <row r="4" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
@@ -1124,10 +1142,10 @@
     </row>
     <row r="5" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>11</v>
@@ -1143,7 +1161,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>12</v>
@@ -1156,7 +1174,7 @@
     </row>
     <row r="7" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>19</v>
@@ -1172,7 +1190,7 @@
     </row>
     <row r="8" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>14</v>
@@ -1188,7 +1206,7 @@
     </row>
     <row r="9" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>16</v>
@@ -1204,10 +1222,10 @@
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>18</v>
@@ -1220,7 +1238,7 @@
     </row>
     <row r="11" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>19</v>
@@ -1252,13 +1270,13 @@
     </row>
     <row r="13" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1272,19 +1290,19 @@
     </row>
     <row r="14" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1292,728 +1310,490 @@
     </row>
     <row r="15" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="E17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="15"/>
+      <c r="C19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A20" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="24"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="24"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="24"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="24"/>
+    </row>
+    <row r="29" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="24"/>
+    </row>
+    <row r="31" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="25"/>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="25"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="25"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="25"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="25"/>
+      <c r="F31" s="24"/>
     </row>
     <row r="32" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="25"/>
+        <v>6</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>8</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="25"/>
+      <c r="F33" s="24" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="23" t="s">
+      <c r="A34" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="7"/>
-      <c r="F34" s="25"/>
+      <c r="F34" s="24"/>
     </row>
     <row r="35" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="23" t="s">
+      <c r="A35" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="25"/>
+      <c r="F35" s="24"/>
     </row>
     <row r="36" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="25"/>
+      <c r="A36" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="21" t="s">
+      <c r="A37" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="25" t="s">
-        <v>8</v>
-      </c>
+      <c r="B37" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="29"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
-        <v>67</v>
+      <c r="A38" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="25"/>
+        <v>74</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="24"/>
     </row>
     <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="25"/>
+      <c r="A39" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="24"/>
     </row>
     <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="31"/>
+      <c r="C40" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="24"/>
     </row>
     <row r="41" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="31"/>
+      <c r="C41" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="24"/>
     </row>
     <row r="42" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
-        <v>67</v>
+      <c r="A42" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="25"/>
+      <c r="F42" s="24"/>
     </row>
     <row r="43" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
-        <v>67</v>
+      <c r="A43" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="25"/>
+      <c r="F43" s="24"/>
     </row>
     <row r="44" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
-        <v>67</v>
+      <c r="A44" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="25"/>
-    </row>
-    <row r="45" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="25"/>
-    </row>
-    <row r="46" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="25"/>
-    </row>
-    <row r="47" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="25"/>
-    </row>
-    <row r="48" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="25"/>
-    </row>
-    <row r="49" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="25"/>
-    </row>
-    <row r="50" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="25"/>
-    </row>
-    <row r="51" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="25"/>
-    </row>
-    <row r="52" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="25"/>
-    </row>
-    <row r="53" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="25"/>
-    </row>
-    <row r="54" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="25"/>
-    </row>
-    <row r="55" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="25"/>
-    </row>
-    <row r="56" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="27"/>
-    </row>
-    <row r="58" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="24"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="6"/>
-    </row>
-    <row r="59" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="27"/>
-    </row>
-    <row r="60" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="27"/>
-    </row>
-    <row r="62" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="27"/>
-    </row>
-    <row r="64" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="6"/>
-    </row>
-    <row r="65" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="27"/>
-    </row>
-    <row r="66" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="24"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="6"/>
-    </row>
-    <row r="67" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="27"/>
-    </row>
-    <row r="68" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="6"/>
-    </row>
-    <row r="69" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="27"/>
+        <v>84</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2026,15 +1806,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D458F015-42A2-4BBF-9341-4D7090E2B688}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -2043,168 +1823,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-    </row>
-    <row r="3" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="36" t="s">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>72</v>
       </c>
+      <c r="B3" s="34" t="s">
+        <v>42</v>
+      </c>
       <c r="C3" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
-    </row>
-    <row r="5" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="30"/>
-    </row>
-    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="25"/>
+        <v>30</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="36"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentação/BackLog-TothLibs.xlsx
+++ b/Documentação/BackLog-TothLibs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas doni\Desktop\git novo\grupo05-adsa\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047CEEA9-6D5B-45E1-9DBE-F6BFEED22D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392EDA61-A57C-439F-8047-85957D1C6E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLogAtualizado" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="97">
   <si>
     <t>Estado</t>
   </si>
@@ -133,9 +133,6 @@
     <t>A aplicação terá o link de compra para os livros</t>
   </si>
   <si>
-    <t xml:space="preserve">A aplicação deverá ter uma dashboard com todas as ações do usuário </t>
-  </si>
-  <si>
     <t xml:space="preserve">A aplicação terá uma resenha do livro, onde o aluno publica algo que ele achou relevante sobre o livro </t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>A aplicação deverá disponibilizar um PDF de um e-book</t>
   </si>
   <si>
-    <t>A aplicação deverá disponibilizar um PDF do histórico da dashboard</t>
-  </si>
-  <si>
     <t>Cadastro&lt;US1.1&gt;</t>
   </si>
   <si>
@@ -296,6 +290,45 @@
   </si>
   <si>
     <t>Prototipação&lt;&gt;</t>
+  </si>
+  <si>
+    <t>execução</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aplicação deverá ter um historico com todas as ações dos usuários </t>
+  </si>
+  <si>
+    <t>A aplicação deverá disponibilizar do histórico da lista de pendentes</t>
+  </si>
+  <si>
+    <t>Adicionar Endpoint para remover livros</t>
+  </si>
+  <si>
+    <t>Adicionar Endpoint para upload de arquivo</t>
+  </si>
+  <si>
+    <t>Adicionar Endpoint para gerar arquivos de layout</t>
+  </si>
+  <si>
+    <t>Adicionar Endpoint para adicionar usuario</t>
+  </si>
+  <si>
+    <t>Adicionar Endpoint para deletar usuario</t>
+  </si>
+  <si>
+    <t>Adicionar Endpoint para desfazer a deleção do usuario</t>
+  </si>
+  <si>
+    <t>Adicionar Endpoint para buscar usuarios</t>
+  </si>
+  <si>
+    <t>Adicionar Endpoint para alterar nome do usuario</t>
+  </si>
+  <si>
+    <t>Adicionar Endpoint para alterar foto do usuario</t>
+  </si>
+  <si>
+    <t>Adicionar Endpoint para exportar todos usuarios pendentes</t>
   </si>
 </sst>
 </file>
@@ -356,7 +389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,18 +404,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -466,11 +541,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -478,98 +599,162 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -759,8 +944,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC1D4480-120A-4F4E-9F66-6BC644D4E94E}" name="Table2" displayName="Table2" ref="A2:F44" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A2:F44" xr:uid="{FC62B9A2-F0D0-4642-871E-9AAFAAE2A77C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC1D4480-120A-4F4E-9F66-6BC644D4E94E}" name="Table2" displayName="Table2" ref="A2:F58" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A2:F58" xr:uid="{FC62B9A2-F0D0-4642-871E-9AAFAAE2A77C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A63357B8-C26B-43D7-949D-1E0481F48DCF}" name="Estado" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{16F3949E-AC72-4991-97C6-65985CDFFA4B}" name="Funcionalidades" dataDxfId="4"/>
@@ -1070,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,198 +1274,198 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="55" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="67"/>
+      <c r="F3" s="69"/>
+    </row>
+    <row r="4" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="68"/>
+    </row>
+    <row r="6" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="C10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="7"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="3"/>
@@ -1289,511 +1474,735 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="A15" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="15"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="35" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="40"/>
+      <c r="F23" s="46"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="40"/>
+      <c r="F24" s="46"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="46"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="46"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="46"/>
+    </row>
+    <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="40"/>
+      <c r="F28" s="46"/>
+    </row>
+    <row r="29" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="46"/>
+    </row>
+    <row r="30" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="40"/>
+      <c r="F30" s="46"/>
+    </row>
+    <row r="31" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="40"/>
+      <c r="F31" s="46"/>
+    </row>
+    <row r="32" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="46"/>
+    </row>
+    <row r="33" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="40"/>
+      <c r="F34" s="46"/>
+    </row>
+    <row r="35" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="40"/>
+      <c r="F35" s="46"/>
+    </row>
+    <row r="36" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="52"/>
+      <c r="F36" s="53"/>
+    </row>
+    <row r="37" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
+    </row>
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="52"/>
+      <c r="F38" s="53"/>
+    </row>
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="52"/>
+      <c r="F39" s="53"/>
+    </row>
+    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="52"/>
+      <c r="F40" s="53"/>
+    </row>
+    <row r="41" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="52"/>
+      <c r="F41" s="53"/>
+    </row>
+    <row r="42" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="52"/>
+      <c r="F42" s="53"/>
+    </row>
+    <row r="43" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="52"/>
+      <c r="F43" s="53"/>
+    </row>
+    <row r="44" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="52"/>
+      <c r="F44" s="53"/>
+    </row>
+    <row r="45" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="52"/>
+      <c r="F45" s="53"/>
+    </row>
+    <row r="46" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="52"/>
+      <c r="F46" s="53"/>
+    </row>
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="52"/>
+      <c r="F47" s="53"/>
+    </row>
+    <row r="48" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="52"/>
+      <c r="F48" s="53"/>
+    </row>
+    <row r="49" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="D49" s="40"/>
+      <c r="E49" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="46"/>
+    </row>
+    <row r="50" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="46"/>
+    </row>
+    <row r="51" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="46"/>
+    </row>
+    <row r="52" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="46"/>
+    </row>
+    <row r="53" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="46"/>
+    </row>
+    <row r="54" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="46"/>
+    </row>
+    <row r="55" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="40"/>
+      <c r="F55" s="46"/>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="24"/>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="24"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="24"/>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="24"/>
-    </row>
-    <row r="31" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="24"/>
-    </row>
-    <row r="33" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="24"/>
-    </row>
-    <row r="35" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="24"/>
-    </row>
-    <row r="36" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30"/>
-    </row>
-    <row r="37" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="30"/>
-    </row>
-    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="24"/>
-    </row>
-    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="24"/>
-    </row>
-    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="24"/>
-    </row>
-    <row r="41" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="24"/>
-    </row>
-    <row r="42" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="24"/>
-    </row>
-    <row r="43" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="24"/>
-    </row>
-    <row r="44" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="24"/>
+      <c r="C58" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="63" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1806,10 +2215,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D458F015-42A2-4BBF-9341-4D7090E2B688}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,88 +2232,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="40" t="s">
+      <c r="A4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36" t="s">
-        <v>8</v>
-      </c>
+      <c r="C4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
